--- a/Mars_Competition_Task/Spreadsheets/Manage Lsiting Test Data.xlsx
+++ b/Mars_Competition_Task/Spreadsheets/Manage Lsiting Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankur\Desktop\Mars_Competition_Task\Mars_Competition_Task\Mars_Competition_Task\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6FAC98-70F4-4B74-B30C-DCCD83FA98E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F132CB-0C02-400F-B6A4-BE5C74CB6746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8FC286E2-47C3-4669-B831-8C688DB29DD5}"/>
   </bookViews>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D9EBF2-48A5-480E-A780-DF45727B18CC}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -945,7 +945,7 @@
         <v>46510</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>99</v>
@@ -1613,7 +1613,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$4:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L7 AK2:AK7</xm:sqref>
+          <xm:sqref>AK2:AK7 L2:L7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A6CE12C5-D690-4D5C-9636-62589E211516}">
           <x14:formula1>
